--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>122592007</t>
+  </si>
+  <si>
+    <t>Acellular blood (serum or plasma) specimen (specimen)</t>
   </si>
   <si>
     <t>119396006</t>
@@ -734,7 +740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1229,15 +1235,23 @@
         <v>148</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>150</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -201,6 +201,12 @@
     <t>Specimen from uterine cervix (specimen)</t>
   </si>
   <si>
+    <t>309066003</t>
+  </si>
+  <si>
+    <t>Skin biopsy specimen (specimen)</t>
+  </si>
+  <si>
     <t>122575003</t>
   </si>
   <si>
@@ -385,6 +391,12 @@
   </si>
   <si>
     <t>Specimen of unknown material (specimen)</t>
+  </si>
+  <si>
+    <t>122571007</t>
+  </si>
+  <si>
+    <t>Pericardial fluid specimen (specimen)</t>
   </si>
   <si>
     <t>309165001</t>
@@ -740,7 +752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1243,15 +1255,31 @@
         <v>150</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,6 +261,12 @@
     <t>Specimen from blood product (specimen)</t>
   </si>
   <si>
+    <t>258604001</t>
+  </si>
+  <si>
+    <t>Upper respiratory specimen</t>
+  </si>
+  <si>
     <t>119393003</t>
   </si>
   <si>
@@ -301,6 +307,12 @@
   </si>
   <si>
     <t>Pus specimen (specimen)</t>
+  </si>
+  <si>
+    <t>258606004</t>
+  </si>
+  <si>
+    <t>Lower respiratory tract specimen</t>
   </si>
   <si>
     <t>399492000</t>
@@ -752,7 +764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1271,15 +1283,31 @@
         <v>154</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,6 +123,12 @@
     <t>Bile specimen (specimen)</t>
   </si>
   <si>
+    <t>397129002</t>
+  </si>
+  <si>
+    <t>Specimen from vulva (specimen)</t>
+  </si>
+  <si>
     <t>258603007</t>
   </si>
   <si>
@@ -135,6 +141,12 @@
     <t>Body fluid specimen (specimen)</t>
   </si>
   <si>
+    <t>418932006</t>
+  </si>
+  <si>
+    <t>Oral Swab (specimen)</t>
+  </si>
+  <si>
     <t>119401005</t>
   </si>
   <si>
@@ -207,6 +219,12 @@
     <t>Skin biopsy specimen (specimen)</t>
   </si>
   <si>
+    <t>258542004</t>
+  </si>
+  <si>
+    <t>Heart valve specimen (specimen)</t>
+  </si>
+  <si>
     <t>122575003</t>
   </si>
   <si>
@@ -333,6 +351,12 @@
     <t>Lymph node specimen (specimen)</t>
   </si>
   <si>
+    <t>3040001000004107</t>
+  </si>
+  <si>
+    <t>Paraffin embedded tissue block specimen (specimen)</t>
+  </si>
+  <si>
     <t>119295008</t>
   </si>
   <si>
@@ -375,6 +399,12 @@
     <t>Specimen from genital system (specimen)</t>
   </si>
   <si>
+    <t>447955000</t>
+  </si>
+  <si>
+    <t>Specimen from rectum (specimen)</t>
+  </si>
+  <si>
     <t>119376003</t>
   </si>
   <si>
@@ -439,6 +469,12 @@
   </si>
   <si>
     <t>Cerebrospinal fluid specimen (specimen)</t>
+  </si>
+  <si>
+    <t>258607008</t>
+  </si>
+  <si>
+    <t>Bronchoalveolar lavage fluid specimen (specimen)</t>
   </si>
   <si>
     <t>258415003</t>
@@ -764,7 +800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1299,15 +1335,63 @@
         <v>158</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,6 +141,12 @@
     <t>Body fluid specimen (specimen)</t>
   </si>
   <si>
+    <t>119340004</t>
+  </si>
+  <si>
+    <t>Meconium specimen (specimen)</t>
+  </si>
+  <si>
     <t>418932006</t>
   </si>
   <si>
@@ -153,6 +159,12 @@
     <t>Specimen from conjunctiva (specimen)</t>
   </si>
   <si>
+    <t>127479004</t>
+  </si>
+  <si>
+    <t>Specimen from uterus (specimen)</t>
+  </si>
+  <si>
     <t>119378002</t>
   </si>
   <si>
@@ -373,6 +385,12 @@
   </si>
   <si>
     <t>Specimen from eye (specimen)</t>
+  </si>
+  <si>
+    <t>309502007</t>
+  </si>
+  <si>
+    <t>Fetus specimen (specimen)</t>
   </si>
   <si>
     <t>119297000</t>
@@ -800,7 +818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1383,15 +1401,39 @@
         <v>170</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-complete-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
